--- a/data/negative_signals/Disease - Total occurrences (B-to-X) - Zopiclone - all categories.xlsx
+++ b/data/negative_signals/Disease - Total occurrences (B-to-X) - Zopiclone - all categories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="463">
   <si>
     <t>pathWeight</t>
   </si>
@@ -108,7 +108,7 @@
     <t>zopiclon-teva</t>
   </si>
   <si>
-    <t>76698392</t>
+    <t>10284117</t>
   </si>
   <si>
     <t>binds with</t>
@@ -120,7 +120,7 @@
     <t>pharmaceutical preparations</t>
   </si>
   <si>
-    <t>105776308</t>
+    <t>39424457</t>
   </si>
   <si>
     <t>is ingredient of</t>
@@ -132,7 +132,7 @@
     <t>cytochrome p450 3a4 (homo sapiens)</t>
   </si>
   <si>
-    <t>105776316</t>
+    <t>39424465</t>
   </si>
   <si>
     <t>interacts with</t>
@@ -144,16 +144,16 @@
     <t>cytochrome p450 2c9 (homo sapiens)</t>
   </si>
   <si>
-    <t>105776317</t>
-  </si>
-  <si>
-    <t>244719</t>
-  </si>
-  <si>
-    <t>prostaglandin g/h synthase 1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>105776315</t>
+    <t>39424466</t>
+  </si>
+  <si>
+    <t>490003</t>
+  </si>
+  <si>
+    <t>cyclooxygenase 1</t>
+  </si>
+  <si>
+    <t>39424464</t>
   </si>
   <si>
     <t>153796</t>
@@ -162,7 +162,7 @@
     <t>pharmacologic substance</t>
   </si>
   <si>
-    <t>105776310</t>
+    <t>39424459</t>
   </si>
   <si>
     <t>is a</t>
@@ -174,13 +174,13 @@
     <t>gamma-aminobutyric acid receptor subunit beta-3 (rattus norvegicus)</t>
   </si>
   <si>
-    <t>72937996</t>
+    <t>6583801</t>
   </si>
   <si>
     <t>inhibits</t>
   </si>
   <si>
-    <t>72937965</t>
+    <t>6583760</t>
   </si>
   <si>
     <t>319103</t>
@@ -189,10 +189,10 @@
     <t>gamma-aminobutyric acid receptor subunit gamma-2 (rattus norvegicus)</t>
   </si>
   <si>
-    <t>72937974</t>
-  </si>
-  <si>
-    <t>72938009</t>
+    <t>6583811</t>
+  </si>
+  <si>
+    <t>6583768</t>
   </si>
   <si>
     <t>2789578</t>
@@ -201,10 +201,10 @@
     <t>gamma-aminobutyric acid receptor subunit alpha-5 (rattus norvegicus)</t>
   </si>
   <si>
-    <t>72938002</t>
-  </si>
-  <si>
-    <t>72937969</t>
+    <t>6583763</t>
+  </si>
+  <si>
+    <t>6583806</t>
   </si>
   <si>
     <t>459841</t>
@@ -213,10 +213,10 @@
     <t>gamma-aminobutyric acid receptor subunit alpha-1 (rattus norvegicus)</t>
   </si>
   <si>
-    <t>72937975</t>
-  </si>
-  <si>
-    <t>72938010</t>
+    <t>6583812</t>
+  </si>
+  <si>
+    <t>6583769</t>
   </si>
   <si>
     <t>2821676</t>
@@ -225,10 +225,10 @@
     <t>gamma-aminobutyric acid receptor subunit beta-2 (rattus norvegicus)</t>
   </si>
   <si>
-    <t>72937994</t>
-  </si>
-  <si>
-    <t>72937962</t>
+    <t>6583792</t>
+  </si>
+  <si>
+    <t>6583755</t>
   </si>
   <si>
     <t>1615478</t>
@@ -237,10 +237,10 @@
     <t>gamma-aminobutyric acid receptor subunit alpha-2 (rattus norvegicus)</t>
   </si>
   <si>
-    <t>72937971</t>
-  </si>
-  <si>
-    <t>72938003</t>
+    <t>6583764</t>
+  </si>
+  <si>
+    <t>6583807</t>
   </si>
   <si>
     <t>2779596</t>
@@ -249,10 +249,10 @@
     <t>gamma-aminobutyric acid receptor subunit alpha-6 (rattus norvegicus)</t>
   </si>
   <si>
-    <t>72937972</t>
-  </si>
-  <si>
-    <t>72938005</t>
+    <t>6583809</t>
+  </si>
+  <si>
+    <t>6583765</t>
   </si>
   <si>
     <t>288261</t>
@@ -261,10 +261,10 @@
     <t>gamma-aminobutyric acid receptor subunit alpha-3 (rattus norvegicus)</t>
   </si>
   <si>
-    <t>72937968</t>
-  </si>
-  <si>
-    <t>72938001</t>
+    <t>6583805</t>
+  </si>
+  <si>
+    <t>6583762</t>
   </si>
   <si>
     <t>4302456</t>
@@ -273,10 +273,10 @@
     <t>gamma-aminobutyric acid receptor subunit gamma-1 (rattus norvegicus)</t>
   </si>
   <si>
-    <t>72938011</t>
-  </si>
-  <si>
-    <t>72937977</t>
+    <t>6583770</t>
+  </si>
+  <si>
+    <t>6583813</t>
   </si>
   <si>
     <t>2049826</t>
@@ -285,10 +285,10 @@
     <t>gamma-aminobutyric acid receptor subunit beta-1 (rattus norvegicus)</t>
   </si>
   <si>
-    <t>72937967</t>
-  </si>
-  <si>
-    <t>72937998</t>
+    <t>6583804</t>
+  </si>
+  <si>
+    <t>6583761</t>
   </si>
   <si>
     <t>99787</t>
@@ -297,10 +297,10 @@
     <t>gamma-aminobutyric acid receptor subunit alpha-4 (rattus norvegicus)</t>
   </si>
   <si>
-    <t>72937978</t>
-  </si>
-  <si>
-    <t>72938014</t>
+    <t>6583772</t>
+  </si>
+  <si>
+    <t>6583814</t>
   </si>
   <si>
     <t>5605224</t>
@@ -309,10 +309,10 @@
     <t>gamma-aminobutyric acid receptor subunit gamma-3 (rattus norvegicus)</t>
   </si>
   <si>
-    <t>72937979</t>
-  </si>
-  <si>
-    <t>72938016</t>
+    <t>6583774</t>
+  </si>
+  <si>
+    <t>6583816</t>
   </si>
   <si>
     <t>4247281</t>
@@ -321,10 +321,22 @@
     <t>gamma-aminobutyric acid receptor subunit delta (rattus norvegicus)</t>
   </si>
   <si>
-    <t>72937963</t>
-  </si>
-  <si>
-    <t>72937995</t>
+    <t>6583796</t>
+  </si>
+  <si>
+    <t>6583757</t>
+  </si>
+  <si>
+    <t>217587</t>
+  </si>
+  <si>
+    <t>gamma-aminobutyric acid receptor subunit epsilon (rattus norvegicus)</t>
+  </si>
+  <si>
+    <t>6583754</t>
+  </si>
+  <si>
+    <t>6583791</t>
   </si>
   <si>
     <t>4634567</t>
@@ -333,22 +345,10 @@
     <t>gamma-aminobutyric acid receptor subunit pi (rattus norvegicus)</t>
   </si>
   <si>
-    <t>72938006</t>
-  </si>
-  <si>
-    <t>72937973</t>
-  </si>
-  <si>
-    <t>217587</t>
-  </si>
-  <si>
-    <t>gamma-aminobutyric acid receptor subunit epsilon (rattus norvegicus)</t>
-  </si>
-  <si>
-    <t>72937992</t>
-  </si>
-  <si>
-    <t>72937961</t>
+    <t>6583767</t>
+  </si>
+  <si>
+    <t>6583810</t>
   </si>
   <si>
     <t>4042268</t>
@@ -357,7 +357,7 @@
     <t>cytochrome p450 2e1 (homo sapiens)</t>
   </si>
   <si>
-    <t>105776318</t>
+    <t>39424467</t>
   </si>
   <si>
     <t>2778792</t>
@@ -366,7 +366,7 @@
     <t>gamma-aminobutyric acid receptor subunit alpha-1 (homo sapiens)</t>
   </si>
   <si>
-    <t>105776321</t>
+    <t>39424470</t>
   </si>
   <si>
     <t>2779093</t>
@@ -375,7 +375,7 @@
     <t>fatty-acid amide hydrolase 1 (homo sapiens)</t>
   </si>
   <si>
-    <t>73681077</t>
+    <t>7248760</t>
   </si>
   <si>
     <t>3814369</t>
@@ -384,7 +384,7 @@
     <t>sedatives</t>
   </si>
   <si>
-    <t>105776309</t>
+    <t>39424458</t>
   </si>
   <si>
     <t>686121</t>
@@ -393,7 +393,7 @@
     <t>gamma-aminobutyric acid receptor subunit alpha-3 (homo sapiens)</t>
   </si>
   <si>
-    <t>105776323</t>
+    <t>39424472</t>
   </si>
   <si>
     <t>2828075</t>
@@ -402,7 +402,7 @@
     <t>gamma-aminobutyric acid receptor subunit alpha-2 (homo sapiens)</t>
   </si>
   <si>
-    <t>105776322</t>
+    <t>39424471</t>
   </si>
   <si>
     <t>620962</t>
@@ -411,16 +411,16 @@
     <t>gamma-aminobutyric acid receptor subunit alpha-5 (homo sapiens)</t>
   </si>
   <si>
-    <t>105776324</t>
-  </si>
-  <si>
-    <t>2786518</t>
-  </si>
-  <si>
-    <t>cytochrome p450 2c8</t>
-  </si>
-  <si>
-    <t>105776319</t>
+    <t>39424473</t>
+  </si>
+  <si>
+    <t>3382050</t>
+  </si>
+  <si>
+    <t>cytochrome p450 2c8 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>39424468</t>
   </si>
   <si>
     <t>4783812</t>
@@ -429,7 +429,7 @@
     <t>zopiclone</t>
   </si>
   <si>
-    <t>204680764</t>
+    <t>138511506</t>
   </si>
   <si>
     <t>is parent of</t>
@@ -441,7 +441,7 @@
     <t>translocator protein (homo sapiens)</t>
   </si>
   <si>
-    <t>105776320</t>
+    <t>39424469</t>
   </si>
   <si>
     <t>129543</t>
@@ -453,7 +453,7 @@
     <t>Anatomy</t>
   </si>
   <si>
-    <t>105776311</t>
+    <t>39424460</t>
   </si>
   <si>
     <t>is part of</t>
@@ -465,7 +465,7 @@
     <t>tissue membrane</t>
   </si>
   <si>
-    <t>105776312</t>
+    <t>39424461</t>
   </si>
   <si>
     <t>836328</t>
@@ -474,7 +474,7 @@
     <t>blood</t>
   </si>
   <si>
-    <t>105776313</t>
+    <t>39424462</t>
   </si>
   <si>
     <t>65077</t>
@@ -483,7 +483,7 @@
     <t>plasma</t>
   </si>
   <si>
-    <t>72309297</t>
+    <t>5905690</t>
   </si>
   <si>
     <t>395518</t>
@@ -492,7 +492,16 @@
     <t>urine</t>
   </si>
   <si>
-    <t>105776314</t>
+    <t>39424463</t>
+  </si>
+  <si>
+    <t>2711332</t>
+  </si>
+  <si>
+    <t>whole blood specimen</t>
+  </si>
+  <si>
+    <t>3014706</t>
   </si>
   <si>
     <t>2786169</t>
@@ -504,7 +513,7 @@
     <t>Genes &amp; Molecular Sequences</t>
   </si>
   <si>
-    <t>83754915</t>
+    <t>18243369</t>
   </si>
   <si>
     <t>augments</t>
@@ -516,28 +525,28 @@
     <t>gabra1 (homo sapiens)</t>
   </si>
   <si>
-    <t>111393506</t>
+    <t>45213733</t>
   </si>
   <si>
     <t>affects</t>
   </si>
   <si>
+    <t>3020629</t>
+  </si>
+  <si>
+    <t>gabrg2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45214068</t>
+  </si>
+  <si>
     <t>3020776</t>
   </si>
   <si>
     <t>gabrb3 (homo sapiens)</t>
   </si>
   <si>
-    <t>111393522</t>
-  </si>
-  <si>
-    <t>3020629</t>
-  </si>
-  <si>
-    <t>gabrg2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111393530</t>
+    <t>45213986</t>
   </si>
   <si>
     <t>3020470</t>
@@ -546,7 +555,7 @@
     <t>gabrb2 (homo sapiens)</t>
   </si>
   <si>
-    <t>111393520</t>
+    <t>45213940</t>
   </si>
   <si>
     <t>3020563</t>
@@ -555,7 +564,7 @@
     <t>gabrb1 (homo sapiens)</t>
   </si>
   <si>
-    <t>111393518</t>
+    <t>45213918</t>
   </si>
   <si>
     <t>3020591</t>
@@ -564,7 +573,7 @@
     <t>gabra2 (homo sapiens)</t>
   </si>
   <si>
-    <t>111393508</t>
+    <t>45213753</t>
   </si>
   <si>
     <t>3021001</t>
@@ -573,7 +582,7 @@
     <t>gabra4 (homo sapiens)</t>
   </si>
   <si>
-    <t>111393512</t>
+    <t>45213838</t>
   </si>
   <si>
     <t>3020644</t>
@@ -582,7 +591,16 @@
     <t>gabra5 (homo sapiens)</t>
   </si>
   <si>
-    <t>111393514</t>
+    <t>45213860</t>
+  </si>
+  <si>
+    <t>3020462</t>
+  </si>
+  <si>
+    <t>gabra3 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45213775</t>
   </si>
   <si>
     <t>3020503</t>
@@ -591,16 +609,7 @@
     <t>gabra6 (homo sapiens)</t>
   </si>
   <si>
-    <t>111393516</t>
-  </si>
-  <si>
-    <t>3020462</t>
-  </si>
-  <si>
-    <t>gabra3 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111393510</t>
+    <t>45213880</t>
   </si>
   <si>
     <t>3010722</t>
@@ -609,7 +618,7 @@
     <t>gabrq (homo sapiens)</t>
   </si>
   <si>
-    <t>111393536</t>
+    <t>45214124</t>
   </si>
   <si>
     <t>3020538</t>
@@ -618,7 +627,7 @@
     <t>gabrg3 (homo sapiens)</t>
   </si>
   <si>
-    <t>111393532</t>
+    <t>45214079</t>
   </si>
   <si>
     <t>2775552</t>
@@ -627,7 +636,16 @@
     <t>tspo (homo sapiens)</t>
   </si>
   <si>
-    <t>111393538</t>
+    <t>45214181</t>
+  </si>
+  <si>
+    <t>2027071</t>
+  </si>
+  <si>
+    <t>gabrd (homo sapiens)</t>
+  </si>
+  <si>
+    <t>45214010</t>
   </si>
   <si>
     <t>3020590</t>
@@ -636,7 +654,7 @@
     <t>gabrp (homo sapiens)</t>
   </si>
   <si>
-    <t>111393534</t>
+    <t>45214098</t>
   </si>
   <si>
     <t>3020787</t>
@@ -645,16 +663,7 @@
     <t>gabre (homo sapiens)</t>
   </si>
   <si>
-    <t>111393526</t>
-  </si>
-  <si>
-    <t>2027071</t>
-  </si>
-  <si>
-    <t>gabrd (homo sapiens)</t>
-  </si>
-  <si>
-    <t>111393524</t>
+    <t>45214028</t>
   </si>
   <si>
     <t>3020466</t>
@@ -663,7 +672,7 @@
     <t>gabrg1 (homo sapiens)</t>
   </si>
   <si>
-    <t>111393528</t>
+    <t>45214050</t>
   </si>
   <si>
     <t>2722595</t>
@@ -675,7 +684,7 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>79325212</t>
+    <t>13472125</t>
   </si>
   <si>
     <t>treats</t>
@@ -687,28 +696,28 @@
     <t>asthenia</t>
   </si>
   <si>
-    <t>79322813</t>
+    <t>13469750</t>
   </si>
   <si>
     <t>indicates</t>
   </si>
   <si>
+    <t>5699121</t>
+  </si>
+  <si>
+    <t>body weight decreased</t>
+  </si>
+  <si>
+    <t>13478015</t>
+  </si>
+  <si>
     <t>220950</t>
   </si>
   <si>
     <t>kidney failure, acute</t>
   </si>
   <si>
-    <t>79322532</t>
-  </si>
-  <si>
-    <t>5699121</t>
-  </si>
-  <si>
-    <t>body weight decreased</t>
-  </si>
-  <si>
-    <t>79330484</t>
+    <t>13469506</t>
   </si>
   <si>
     <t>603590</t>
@@ -717,7 +726,7 @@
     <t>headache</t>
   </si>
   <si>
-    <t>79323586</t>
+    <t>13470512</t>
   </si>
   <si>
     <t>536761</t>
@@ -726,7 +735,7 @@
     <t>hepatitis, toxic</t>
   </si>
   <si>
-    <t>79323042</t>
+    <t>13469939</t>
   </si>
   <si>
     <t>790153</t>
@@ -735,7 +744,7 @@
     <t>hepatitis, drug-induced</t>
   </si>
   <si>
-    <t>79323045</t>
+    <t>13469947</t>
   </si>
   <si>
     <t>636875</t>
@@ -744,7 +753,7 @@
     <t>drug-induced liver injury</t>
   </si>
   <si>
-    <t>79323036</t>
+    <t>13469935</t>
   </si>
   <si>
     <t>1937679</t>
@@ -753,7 +762,7 @@
     <t>drug-induced acute liver injury</t>
   </si>
   <si>
-    <t>79323039</t>
+    <t>13469943</t>
   </si>
   <si>
     <t>3170803</t>
@@ -762,7 +771,7 @@
     <t>abdominal pain</t>
   </si>
   <si>
-    <t>79322312</t>
+    <t>13464416</t>
   </si>
   <si>
     <t>3773320</t>
@@ -771,7 +780,7 @@
     <t>memory impairment</t>
   </si>
   <si>
-    <t>79324522</t>
+    <t>13471369</t>
   </si>
   <si>
     <t>2051366</t>
@@ -780,7 +789,7 @@
     <t>acute kidney injury</t>
   </si>
   <si>
-    <t>79322530</t>
+    <t>13469503</t>
   </si>
   <si>
     <t>2822881</t>
@@ -789,7 +798,7 @@
     <t>acute kidney insufficiency</t>
   </si>
   <si>
-    <t>79322527</t>
+    <t>13469500</t>
   </si>
   <si>
     <t>235450</t>
@@ -798,7 +807,16 @@
     <t>amnesia</t>
   </si>
   <si>
-    <t>79324516</t>
+    <t>13471360</t>
+  </si>
+  <si>
+    <t>3772078</t>
+  </si>
+  <si>
+    <t>hepatotoxicity</t>
+  </si>
+  <si>
+    <t>8770384</t>
   </si>
   <si>
     <t>5698699</t>
@@ -807,7 +825,7 @@
     <t>anorexia</t>
   </si>
   <si>
-    <t>79322712</t>
+    <t>13469683</t>
   </si>
   <si>
     <t>171892</t>
@@ -816,7 +834,7 @@
     <t>hemicrania</t>
   </si>
   <si>
-    <t>79323617</t>
+    <t>13470531</t>
   </si>
   <si>
     <t>2441406</t>
@@ -825,7 +843,7 @@
     <t>orthostatic headache</t>
   </si>
   <si>
-    <t>79323614</t>
+    <t>13470529</t>
   </si>
   <si>
     <t>450724</t>
@@ -834,7 +852,7 @@
     <t>throbbing headache</t>
   </si>
   <si>
-    <t>79323592</t>
+    <t>13470517</t>
   </si>
   <si>
     <t>3123986</t>
@@ -843,7 +861,7 @@
     <t>bilateral headache</t>
   </si>
   <si>
-    <t>79323608</t>
+    <t>13470525</t>
   </si>
   <si>
     <t>3026435</t>
@@ -852,7 +870,7 @@
     <t>generalized headache</t>
   </si>
   <si>
-    <t>79323589</t>
+    <t>13470514</t>
   </si>
   <si>
     <t>2440978</t>
@@ -861,7 +879,7 @@
     <t>sharp headache</t>
   </si>
   <si>
-    <t>79323611</t>
+    <t>13470527</t>
   </si>
   <si>
     <t>762995</t>
@@ -870,7 +888,7 @@
     <t>vertex headache</t>
   </si>
   <si>
-    <t>79323602</t>
+    <t>13470521</t>
   </si>
   <si>
     <t>3815615</t>
@@ -879,7 +897,7 @@
     <t>ocular headache</t>
   </si>
   <si>
-    <t>79323605</t>
+    <t>13470523</t>
   </si>
   <si>
     <t>240171</t>
@@ -888,7 +906,7 @@
     <t>periorbital headache</t>
   </si>
   <si>
-    <t>79323599</t>
+    <t>13470519</t>
   </si>
   <si>
     <t>483508</t>
@@ -897,7 +915,16 @@
     <t>retro-ocular headache</t>
   </si>
   <si>
-    <t>79323596</t>
+    <t>13470516</t>
+  </si>
+  <si>
+    <t>180506</t>
+  </si>
+  <si>
+    <t>visual impairment</t>
+  </si>
+  <si>
+    <t>13477573</t>
   </si>
   <si>
     <t>3109012</t>
@@ -906,16 +933,7 @@
     <t>mood disorders</t>
   </si>
   <si>
-    <t>79324796</t>
-  </si>
-  <si>
-    <t>180506</t>
-  </si>
-  <si>
-    <t>visual impairment</t>
-  </si>
-  <si>
-    <t>79330110</t>
+    <t>13471628</t>
   </si>
   <si>
     <t>4041801</t>
@@ -924,7 +942,7 @@
     <t>drug abuse</t>
   </si>
   <si>
-    <t>79328239</t>
+    <t>13475307</t>
   </si>
   <si>
     <t>2551534</t>
@@ -933,7 +951,7 @@
     <t>sleeplessness</t>
   </si>
   <si>
-    <t>79325578</t>
+    <t>13472513</t>
   </si>
   <si>
     <t>4028800</t>
@@ -942,7 +960,7 @@
     <t>nephritis, interstitial</t>
   </si>
   <si>
-    <t>79324905</t>
+    <t>13471750</t>
   </si>
   <si>
     <t>4047906</t>
@@ -951,7 +969,7 @@
     <t>memory disorders</t>
   </si>
   <si>
-    <t>79324518</t>
+    <t>13471363</t>
   </si>
   <si>
     <t>3814730</t>
@@ -960,7 +978,7 @@
     <t>nephritis, tubulointerstitial</t>
   </si>
   <si>
-    <t>79324908</t>
+    <t>13471753</t>
   </si>
   <si>
     <t>2977137</t>
@@ -969,7 +987,7 @@
     <t>drug dependence</t>
   </si>
   <si>
-    <t>79328247</t>
+    <t>13475315</t>
   </si>
   <si>
     <t>239947</t>
@@ -978,7 +996,7 @@
     <t>age-related memory disorders</t>
   </si>
   <si>
-    <t>79324526</t>
+    <t>13471373</t>
   </si>
   <si>
     <t>2441034</t>
@@ -987,7 +1005,7 @@
     <t>memory disorder, semantic</t>
   </si>
   <si>
-    <t>79324520</t>
+    <t>13471366</t>
   </si>
   <si>
     <t>322759</t>
@@ -996,16 +1014,7 @@
     <t>memory disorder, spatial</t>
   </si>
   <si>
-    <t>79324524</t>
-  </si>
-  <si>
-    <t>3045767</t>
-  </si>
-  <si>
-    <t>toxic liver disease</t>
-  </si>
-  <si>
-    <t>75140055</t>
+    <t>13471370</t>
   </si>
   <si>
     <t>4819343</t>
@@ -1014,7 +1023,7 @@
     <t>vision disorders</t>
   </si>
   <si>
-    <t>79330107</t>
+    <t>13477569</t>
   </si>
   <si>
     <t>534965</t>
@@ -1023,7 +1032,7 @@
     <t>substance use disorders</t>
   </si>
   <si>
-    <t>79328265</t>
+    <t>13475336</t>
   </si>
   <si>
     <t>53247</t>
@@ -1032,7 +1041,7 @@
     <t>drug usage</t>
   </si>
   <si>
-    <t>79328251</t>
+    <t>13475319</t>
   </si>
   <si>
     <t>3741306</t>
@@ -1041,7 +1050,25 @@
     <t>metamorphopsia</t>
   </si>
   <si>
-    <t>79330097</t>
+    <t>13477561</t>
+  </si>
+  <si>
+    <t>358467</t>
+  </si>
+  <si>
+    <t>heart block</t>
+  </si>
+  <si>
+    <t>13471061</t>
+  </si>
+  <si>
+    <t>617572</t>
+  </si>
+  <si>
+    <t>hemeralopia</t>
+  </si>
+  <si>
+    <t>13477563</t>
   </si>
   <si>
     <t>696238</t>
@@ -1050,16 +1077,7 @@
     <t>primary insomnia</t>
   </si>
   <si>
-    <t>79325563</t>
-  </si>
-  <si>
-    <t>617572</t>
-  </si>
-  <si>
-    <t>hemeralopia</t>
-  </si>
-  <si>
-    <t>79330100</t>
+    <t>13472498</t>
   </si>
   <si>
     <t>2441023</t>
@@ -1068,7 +1086,7 @@
     <t>chronic insomnia</t>
   </si>
   <si>
-    <t>79325560</t>
+    <t>13472495</t>
   </si>
   <si>
     <t>3773353</t>
@@ -1077,7 +1095,7 @@
     <t>micropsia</t>
   </si>
   <si>
-    <t>79330103</t>
+    <t>13477567</t>
   </si>
   <si>
     <t>3769801</t>
@@ -1086,16 +1104,7 @@
     <t>macropsia</t>
   </si>
   <si>
-    <t>79330113</t>
-  </si>
-  <si>
-    <t>358467</t>
-  </si>
-  <si>
-    <t>heart block</t>
-  </si>
-  <si>
-    <t>79324219</t>
+    <t>13477576</t>
   </si>
   <si>
     <t>995115</t>
@@ -1104,7 +1113,7 @@
     <t>vision disability</t>
   </si>
   <si>
-    <t>79330094</t>
+    <t>13477557</t>
   </si>
   <si>
     <t>721060</t>
@@ -1113,7 +1122,7 @@
     <t>substance dependence</t>
   </si>
   <si>
-    <t>79328259</t>
+    <t>13475328</t>
   </si>
   <si>
     <t>504909</t>
@@ -1122,7 +1131,7 @@
     <t>sleep initiation and maintenance disorders</t>
   </si>
   <si>
-    <t>79325559</t>
+    <t>13472492</t>
   </si>
   <si>
     <t>3114662</t>
@@ -1131,7 +1140,7 @@
     <t>early awakening</t>
   </si>
   <si>
-    <t>79325566</t>
+    <t>13472501</t>
   </si>
   <si>
     <t>596185</t>
@@ -1140,7 +1149,7 @@
     <t>substance abuse problem</t>
   </si>
   <si>
-    <t>79328243</t>
+    <t>13475312</t>
   </si>
   <si>
     <t>2441543</t>
@@ -1149,7 +1158,7 @@
     <t>psychophysiological insomnia</t>
   </si>
   <si>
-    <t>79325556</t>
+    <t>13472490</t>
   </si>
   <si>
     <t>47464</t>
@@ -1158,7 +1167,7 @@
     <t>transient insomnia</t>
   </si>
   <si>
-    <t>79325569</t>
+    <t>13472504</t>
   </si>
   <si>
     <t>3750202</t>
@@ -1167,7 +1176,7 @@
     <t>rebound insomnia</t>
   </si>
   <si>
-    <t>79325575</t>
+    <t>13472510</t>
   </si>
   <si>
     <t>2441827</t>
@@ -1176,7 +1185,7 @@
     <t>secondary insomnia</t>
   </si>
   <si>
-    <t>79325572</t>
+    <t>13472507</t>
   </si>
   <si>
     <t>3064234</t>
@@ -1185,7 +1194,7 @@
     <t>nonorganic insomnia</t>
   </si>
   <si>
-    <t>79325582</t>
+    <t>13472517</t>
   </si>
   <si>
     <t>2441415</t>
@@ -1194,7 +1203,7 @@
     <t>sleep initiation dysfunction</t>
   </si>
   <si>
-    <t>79325579</t>
+    <t>13472516</t>
   </si>
   <si>
     <t>306800</t>
@@ -1203,7 +1212,7 @@
     <t>substance-related disorders</t>
   </si>
   <si>
-    <t>79328269</t>
+    <t>13475339</t>
   </si>
   <si>
     <t>294242</t>
@@ -1212,7 +1221,7 @@
     <t>drug use disorders</t>
   </si>
   <si>
-    <t>79328273</t>
+    <t>13475344</t>
   </si>
   <si>
     <t>164602</t>
@@ -1221,7 +1230,7 @@
     <t>drug habituation</t>
   </si>
   <si>
-    <t>79328262</t>
+    <t>13475332</t>
   </si>
   <si>
     <t>50235</t>
@@ -1230,7 +1239,7 @@
     <t>auriculo-ventricular dissociation</t>
   </si>
   <si>
-    <t>79324222</t>
+    <t>13471064</t>
   </si>
   <si>
     <t>4028466</t>
@@ -1239,7 +1248,7 @@
     <t>organic mental disorders, substance-induced</t>
   </si>
   <si>
-    <t>79328255</t>
+    <t>13475323</t>
   </si>
   <si>
     <t>4863334</t>
@@ -1248,7 +1257,7 @@
     <t>taste disorders</t>
   </si>
   <si>
-    <t>79329293</t>
+    <t>13476483</t>
   </si>
   <si>
     <t>501829</t>
@@ -1257,7 +1266,7 @@
     <t>psychomotor impairment</t>
   </si>
   <si>
-    <t>79325088</t>
+    <t>13471947</t>
   </si>
   <si>
     <t>3772156</t>
@@ -1266,7 +1275,7 @@
     <t>taste, metallic</t>
   </si>
   <si>
-    <t>79329285</t>
+    <t>13476475</t>
   </si>
   <si>
     <t>503077</t>
@@ -1275,7 +1284,7 @@
     <t>psychomotor disorders</t>
   </si>
   <si>
-    <t>79325090</t>
+    <t>13471944</t>
   </si>
   <si>
     <t>118980</t>
@@ -1284,7 +1293,7 @@
     <t>taste disorder, primary</t>
   </si>
   <si>
-    <t>79329280</t>
+    <t>13476466</t>
   </si>
   <si>
     <t>3773516</t>
@@ -1293,7 +1302,7 @@
     <t>taste disorder, secondary</t>
   </si>
   <si>
-    <t>79329305</t>
+    <t>13476503</t>
   </si>
   <si>
     <t>716897</t>
@@ -1302,7 +1311,7 @@
     <t>taste disorder, secondary, salt</t>
   </si>
   <si>
-    <t>79329302</t>
+    <t>13476498</t>
   </si>
   <si>
     <t>421314</t>
@@ -1311,7 +1320,7 @@
     <t>taste disorder, primary, sweet</t>
   </si>
   <si>
-    <t>79329277</t>
+    <t>13476462</t>
   </si>
   <si>
     <t>3774320</t>
@@ -1320,7 +1329,7 @@
     <t>taste disorder, secondary, sweet</t>
   </si>
   <si>
-    <t>79329290</t>
+    <t>13476486</t>
   </si>
   <si>
     <t>3774015</t>
@@ -1329,7 +1338,7 @@
     <t>taste disorder, posterior tongue</t>
   </si>
   <si>
-    <t>79329282</t>
+    <t>13476470</t>
   </si>
   <si>
     <t>3773618</t>
@@ -1338,7 +1347,7 @@
     <t>taste disorder, primary, salt</t>
   </si>
   <si>
-    <t>79329299</t>
+    <t>13476495</t>
   </si>
   <si>
     <t>3769685</t>
@@ -1347,7 +1356,7 @@
     <t>taste disorder, anterior tongue</t>
   </si>
   <si>
-    <t>79329274</t>
+    <t>13476458</t>
   </si>
   <si>
     <t>223410</t>
@@ -1356,7 +1365,7 @@
     <t>taste disorder, secondary, bitter</t>
   </si>
   <si>
-    <t>79329296</t>
+    <t>13476491</t>
   </si>
   <si>
     <t>216807</t>
@@ -1365,7 +1374,7 @@
     <t>taste disorder, primary, bitter</t>
   </si>
   <si>
-    <t>79329287</t>
+    <t>13476479</t>
   </si>
   <si>
     <t>78120</t>
@@ -1374,7 +1383,28 @@
     <t>developmental psychomotor disorders</t>
   </si>
   <si>
-    <t>79325092</t>
+    <t>13471950</t>
+  </si>
+  <si>
+    <t>6433274</t>
+  </si>
+  <si>
+    <t>rattus norvegicus</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>5417368</t>
+  </si>
+  <si>
+    <t>6432938</t>
+  </si>
+  <si>
+    <t>homo sapiens</t>
+  </si>
+  <si>
+    <t>2523590</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1534,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.79887580871582</v>
+        <v>6.798847675323486</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -1562,7 +1592,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.553379058837891</v>
+        <v>6.5533623695373535</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -1591,7 +1621,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.38753080368042</v>
+        <v>6.387482166290283</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
@@ -1620,7 +1650,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.799776077270508</v>
+        <v>5.934462070465088</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -1678,7 +1708,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.621243000030518</v>
+        <v>5.620818614959717</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -1713,7 +1743,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.608046531677246</v>
+        <v>5.607901096343994</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -1737,18 +1767,18 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.607026100158691</v>
+        <v>5.606733798980713</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -1772,18 +1802,18 @@
         <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
         <v>62</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.605563640594482</v>
+        <v>5.6052703857421875</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
@@ -1807,18 +1837,18 @@
         <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
         <v>66</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.603213787078857</v>
+        <v>5.602919101715088</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -1853,7 +1883,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.599813461303711</v>
+        <v>5.59951639175415</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -1888,7 +1918,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.597133159637451</v>
+        <v>5.596983909606934</v>
       </c>
       <c r="B14" t="s">
         <v>75</v>
@@ -1912,18 +1942,18 @@
         <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s">
         <v>78</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.596086502075195</v>
+        <v>5.595787048339844</v>
       </c>
       <c r="B15" t="s">
         <v>79</v>
@@ -1947,18 +1977,18 @@
         <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
         <v>82</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.593533992767334</v>
+        <v>5.593233108520508</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -1982,18 +2012,18 @@
         <v>85</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.5933837890625</v>
+        <v>5.593081951141357</v>
       </c>
       <c r="B17" t="s">
         <v>87</v>
@@ -2017,18 +2047,18 @@
         <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s">
         <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.5924787521362305</v>
+        <v>5.592176914215088</v>
       </c>
       <c r="B18" t="s">
         <v>91</v>
@@ -2063,7 +2093,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.592176914215088</v>
+        <v>5.591874599456787</v>
       </c>
       <c r="B19" t="s">
         <v>95</v>
@@ -2098,7 +2128,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.591723442077637</v>
+        <v>5.591420650482178</v>
       </c>
       <c r="B20" t="s">
         <v>99</v>
@@ -2122,18 +2152,18 @@
         <v>101</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
         <v>102</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.591572284698486</v>
+        <v>5.591420650482178</v>
       </c>
       <c r="B21" t="s">
         <v>103</v>
@@ -2157,18 +2187,18 @@
         <v>105</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="J21" t="s">
         <v>106</v>
       </c>
       <c r="K21" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.591572284698486</v>
+        <v>5.591269493103027</v>
       </c>
       <c r="B22" t="s">
         <v>107</v>
@@ -2192,18 +2222,18 @@
         <v>109</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="J22" t="s">
         <v>110</v>
       </c>
       <c r="K22" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.399535179138184</v>
+        <v>5.399299621582031</v>
       </c>
       <c r="B23" t="s">
         <v>111</v>
@@ -2232,7 +2262,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.380037307739258</v>
+        <v>5.379544734954834</v>
       </c>
       <c r="B24" t="s">
         <v>114</v>
@@ -2319,7 +2349,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.285214900970459</v>
+        <v>5.284602165222168</v>
       </c>
       <c r="B27" t="s">
         <v>123</v>
@@ -2348,7 +2378,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.270893096923828</v>
+        <v>5.270259380340576</v>
       </c>
       <c r="B28" t="s">
         <v>126</v>
@@ -2377,7 +2407,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.257717132568359</v>
+        <v>5.256082534790039</v>
       </c>
       <c r="B29" t="s">
         <v>129</v>
@@ -2406,7 +2436,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.819280624389648</v>
+        <v>4.884818077087402</v>
       </c>
       <c r="B30" t="s">
         <v>132</v>
@@ -2583,7 +2613,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.447953701019287</v>
+        <v>7.447789669036865</v>
       </c>
       <c r="B2" t="s">
         <v>142</v>
@@ -2612,7 +2642,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.411079406738281</v>
+        <v>7.410914421081543</v>
       </c>
       <c r="B3" t="s">
         <v>147</v>
@@ -2699,7 +2729,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.264387130737305</v>
+        <v>6.264419078826904</v>
       </c>
       <c r="B6" t="s">
         <v>156</v>
@@ -2724,6 +2754,35 @@
       </c>
       <c r="I6" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4.5665082931518555</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2818,16 +2877,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.697020053863525</v>
+        <v>5.6983232498168945</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -2839,25 +2898,25 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.47694730758667</v>
+        <v>5.495832920074463</v>
       </c>
       <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" t="s">
         <v>164</v>
       </c>
-      <c r="C3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" t="s">
-        <v>161</v>
-      </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
@@ -2868,24 +2927,24 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.465775489807129</v>
+        <v>5.4795002937316895</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -2897,24 +2956,24 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" t="s">
         <v>170</v>
-      </c>
-      <c r="I4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.456790924072266</v>
+        <v>5.472194671630859</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -2926,24 +2985,24 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.444019794464111</v>
+        <v>5.445927619934082</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -2955,10 +3014,10 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7">
@@ -2966,13 +3025,13 @@
         <v>5.415026664733887</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -2984,24 +3043,24 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.413889408111572</v>
+        <v>5.414799690246582</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -3013,24 +3072,24 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.409541130065918</v>
+        <v>5.409770965576172</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -3042,24 +3101,24 @@
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.400240898132324</v>
+        <v>5.402116775512695</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
@@ -3071,24 +3130,24 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.384933948516846</v>
+        <v>5.389293670654297</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
@@ -3100,24 +3159,24 @@
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.382247447967529</v>
+        <v>5.384933948516846</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
@@ -3129,10 +3188,10 @@
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13">
@@ -3140,13 +3199,13 @@
         <v>5.361168384552002</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
@@ -3158,10 +3217,10 @@
         <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
@@ -3169,13 +3228,13 @@
         <v>5.354169845581055</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
@@ -3187,24 +3246,24 @@
         <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.271525859832764</v>
+        <v>5.273417949676514</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
@@ -3216,24 +3275,24 @@
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.884047508239746</v>
+        <v>5.119414329528809</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E16" t="s">
         <v>28</v>
@@ -3245,24 +3304,24 @@
         <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.877831935882568</v>
+        <v>4.890174865722656</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C17" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -3274,24 +3333,24 @@
         <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.842808723449707</v>
+        <v>4.877831935882568</v>
       </c>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
@@ -3303,10 +3362,10 @@
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
@@ -3314,13 +3373,13 @@
         <v>4.70524787902832</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
@@ -3332,10 +3391,10 @@
         <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3430,16 +3489,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.985652923583984</v>
+        <v>5.986079692840576</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -3451,10 +3510,10 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
@@ -3462,13 +3521,13 @@
         <v>5.961618423461914</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -3480,24 +3539,24 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.928444862365723</v>
+        <v>5.947786331176758</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -3509,24 +3568,24 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.921778202056885</v>
+        <v>5.928723335266113</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -3538,24 +3597,24 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.889261245727539</v>
+        <v>5.896292686462402</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -3567,24 +3626,24 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.851126194000244</v>
+        <v>5.853946208953857</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -3596,24 +3655,24 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.849959850311279</v>
+        <v>5.852869987487793</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -3625,24 +3684,24 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.849291801452637</v>
+        <v>5.852206707000732</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -3654,24 +3713,24 @@
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.840000629425049</v>
+        <v>5.842978477478027</v>
       </c>
       <c r="B10" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
@@ -3683,24 +3742,24 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.7565813064575195</v>
+        <v>5.764678001403809</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
@@ -3712,24 +3771,24 @@
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I11" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.746851921081543</v>
+        <v>5.755338191986084</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C12" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
@@ -3741,24 +3800,24 @@
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I12" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.7088422775268555</v>
+        <v>5.710570812225342</v>
       </c>
       <c r="B13" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D13" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
@@ -3770,24 +3829,24 @@
         <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I13" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.694879055023193</v>
+        <v>5.695355415344238</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C14" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
@@ -3799,24 +3858,24 @@
         <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I14" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.689599990844727</v>
+        <v>5.694282054901123</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C15" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
@@ -3828,24 +3887,24 @@
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="I15" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.645956516265869</v>
+        <v>5.685354709625244</v>
       </c>
       <c r="B16" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C16" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E16" t="s">
         <v>28</v>
@@ -3857,24 +3916,24 @@
         <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I16" t="s">
-        <v>224</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.632676124572754</v>
+        <v>5.649941921234131</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C17" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -3886,24 +3945,24 @@
         <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I17" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.624199390411377</v>
+        <v>5.632676124572754</v>
       </c>
       <c r="B18" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C18" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
@@ -3915,24 +3974,24 @@
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I18" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.623356819152832</v>
+        <v>5.624199390411377</v>
       </c>
       <c r="B19" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C19" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
@@ -3944,24 +4003,24 @@
         <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I19" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.621101379394531</v>
+        <v>5.623356819152832</v>
       </c>
       <c r="B20" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C20" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D20" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
@@ -3973,24 +4032,24 @@
         <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I20" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.620960235595703</v>
+        <v>5.621101379394531</v>
       </c>
       <c r="B21" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C21" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -4002,24 +4061,24 @@
         <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I21" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.62025260925293</v>
+        <v>5.620960235595703</v>
       </c>
       <c r="B22" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C22" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D22" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E22" t="s">
         <v>28</v>
@@ -4031,24 +4090,24 @@
         <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.620110988616943</v>
+        <v>5.62025260925293</v>
       </c>
       <c r="B23" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C23" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D23" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
@@ -4060,10 +4119,10 @@
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="I23" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
@@ -4071,13 +4130,13 @@
         <v>5.620110988616943</v>
       </c>
       <c r="B24" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C24" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E24" t="s">
         <v>28</v>
@@ -4089,24 +4148,24 @@
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="I24" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.619969367980957</v>
+        <v>5.620110988616943</v>
       </c>
       <c r="B25" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C25" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E25" t="s">
         <v>28</v>
@@ -4118,24 +4177,24 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I25" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.619827747344971</v>
+        <v>5.619969367980957</v>
       </c>
       <c r="B26" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C26" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D26" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
@@ -4147,24 +4206,24 @@
         <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="I26" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.543978691101074</v>
+        <v>5.619827747344971</v>
       </c>
       <c r="B27" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C27" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D27" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E27" t="s">
         <v>28</v>
@@ -4176,24 +4235,24 @@
         <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="I27" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.525708198547363</v>
+        <v>5.5533294677734375</v>
       </c>
       <c r="B28" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C28" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D28" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E28" t="s">
         <v>28</v>
@@ -4205,24 +4264,24 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="I28" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.509568214416504</v>
+        <v>5.544653415679932</v>
       </c>
       <c r="B29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C29" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D29" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E29" t="s">
         <v>28</v>
@@ -4234,24 +4293,24 @@
         <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="I29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.482622146606445</v>
+        <v>5.509568214416504</v>
       </c>
       <c r="B30" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C30" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D30" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E30" t="s">
         <v>28</v>
@@ -4263,24 +4322,24 @@
         <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I30" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.432392120361328</v>
+        <v>5.484174728393555</v>
       </c>
       <c r="B31" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C31" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D31" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E31" t="s">
         <v>28</v>
@@ -4292,24 +4351,24 @@
         <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.417744159698486</v>
+        <v>5.432392120361328</v>
       </c>
       <c r="B32" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C32" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D32" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E32" t="s">
         <v>28</v>
@@ -4321,24 +4380,24 @@
         <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I32" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.39337158203125</v>
+        <v>5.430203914642334</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C33" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D33" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E33" t="s">
         <v>28</v>
@@ -4350,24 +4409,24 @@
         <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I33" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.392176151275635</v>
+        <v>5.399535179138184</v>
       </c>
       <c r="B34" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C34" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D34" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E34" t="s">
         <v>28</v>
@@ -4379,24 +4438,24 @@
         <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="I34" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5.372337341308594</v>
+        <v>5.392176151275635</v>
       </c>
       <c r="B35" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C35" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D35" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E35" t="s">
         <v>28</v>
@@ -4408,24 +4467,24 @@
         <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I35" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.370579719543457</v>
+        <v>5.386392116546631</v>
       </c>
       <c r="B36" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C36" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D36" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E36" t="s">
         <v>28</v>
@@ -4437,24 +4496,24 @@
         <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I36" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.369824409484863</v>
+        <v>5.384690284729004</v>
       </c>
       <c r="B37" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C37" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D37" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E37" t="s">
         <v>28</v>
@@ -4466,24 +4525,24 @@
         <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="I37" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5.367549896240234</v>
+        <v>5.38395881652832</v>
       </c>
       <c r="B38" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C38" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D38" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E38" t="s">
         <v>28</v>
@@ -4495,10 +4554,10 @@
         <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39">
@@ -4506,13 +4565,13 @@
         <v>5.359622955322266</v>
       </c>
       <c r="B39" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C39" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D39" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E39" t="s">
         <v>28</v>
@@ -4524,10 +4583,10 @@
         <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I39" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40">
@@ -4535,13 +4594,13 @@
         <v>5.312515735626221</v>
       </c>
       <c r="B40" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C40" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D40" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E40" t="s">
         <v>28</v>
@@ -4553,10 +4612,10 @@
         <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="I40" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41">
@@ -4564,13 +4623,13 @@
         <v>5.312228202819824</v>
       </c>
       <c r="B41" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C41" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D41" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E41" t="s">
         <v>28</v>
@@ -4582,24 +4641,24 @@
         <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="I41" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.250478744506836</v>
+        <v>5.2514729499816895</v>
       </c>
       <c r="B42" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C42" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D42" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E42" t="s">
         <v>28</v>
@@ -4611,24 +4670,24 @@
         <v>27</v>
       </c>
       <c r="H42" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="I42" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.243117332458496</v>
+        <v>5.250478744506836</v>
       </c>
       <c r="B43" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C43" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D43" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E43" t="s">
         <v>28</v>
@@ -4640,24 +4699,24 @@
         <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="I43" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.24006986618042</v>
+        <v>5.2458086013793945</v>
       </c>
       <c r="B44" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C44" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D44" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E44" t="s">
         <v>28</v>
@@ -4669,24 +4728,24 @@
         <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="I44" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.239729881286621</v>
+        <v>5.243117332458496</v>
       </c>
       <c r="B45" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C45" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D45" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E45" t="s">
         <v>28</v>
@@ -4698,24 +4757,24 @@
         <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="I45" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.231490135192871</v>
+        <v>5.239729881286621</v>
       </c>
       <c r="B46" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C46" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D46" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E46" t="s">
         <v>28</v>
@@ -4727,24 +4786,24 @@
         <v>27</v>
       </c>
       <c r="H46" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.2269606590271</v>
+        <v>5.231490135192871</v>
       </c>
       <c r="B47" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C47" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D47" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E47" t="s">
         <v>28</v>
@@ -4756,24 +4815,24 @@
         <v>27</v>
       </c>
       <c r="H47" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I47" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.22661018371582</v>
+        <v>5.2269606590271</v>
       </c>
       <c r="B48" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C48" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D48" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E48" t="s">
         <v>28</v>
@@ -4785,10 +4844,10 @@
         <v>27</v>
       </c>
       <c r="H48" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="I48" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49">
@@ -4796,13 +4855,13 @@
         <v>5.223443984985352</v>
       </c>
       <c r="B49" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C49" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D49" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E49" t="s">
         <v>28</v>
@@ -4814,10 +4873,10 @@
         <v>27</v>
       </c>
       <c r="H49" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="I49" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50">
@@ -4825,13 +4884,13 @@
         <v>5.222383499145508</v>
       </c>
       <c r="B50" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C50" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D50" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E50" t="s">
         <v>28</v>
@@ -4843,10 +4902,10 @@
         <v>27</v>
       </c>
       <c r="H50" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="I50" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51">
@@ -4854,13 +4913,13 @@
         <v>5.209450721740723</v>
       </c>
       <c r="B51" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C51" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D51" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E51" t="s">
         <v>28</v>
@@ -4872,10 +4931,10 @@
         <v>27</v>
       </c>
       <c r="H51" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I51" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52">
@@ -4883,13 +4942,13 @@
         <v>5.205420970916748</v>
       </c>
       <c r="B52" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C52" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D52" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E52" t="s">
         <v>28</v>
@@ -4901,10 +4960,10 @@
         <v>27</v>
       </c>
       <c r="H52" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="I52" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53">
@@ -4912,13 +4971,13 @@
         <v>5.203576564788818</v>
       </c>
       <c r="B53" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C53" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D53" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E53" t="s">
         <v>28</v>
@@ -4930,10 +4989,10 @@
         <v>27</v>
       </c>
       <c r="H53" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I53" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54">
@@ -4941,13 +5000,13 @@
         <v>5.194236755371094</v>
       </c>
       <c r="B54" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C54" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D54" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E54" t="s">
         <v>28</v>
@@ -4959,10 +5018,10 @@
         <v>27</v>
       </c>
       <c r="H54" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="I54" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55">
@@ -4970,13 +5029,13 @@
         <v>5.191205024719238</v>
       </c>
       <c r="B55" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C55" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D55" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E55" t="s">
         <v>28</v>
@@ -4988,10 +5047,10 @@
         <v>27</v>
       </c>
       <c r="H55" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I55" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56">
@@ -4999,13 +5058,13 @@
         <v>5.188151836395264</v>
       </c>
       <c r="B56" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C56" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D56" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E56" t="s">
         <v>28</v>
@@ -5017,10 +5076,10 @@
         <v>27</v>
       </c>
       <c r="H56" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I56" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57">
@@ -5028,13 +5087,13 @@
         <v>5.187385559082031</v>
       </c>
       <c r="B57" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C57" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D57" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E57" t="s">
         <v>28</v>
@@ -5046,10 +5105,10 @@
         <v>27</v>
       </c>
       <c r="H57" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I57" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58">
@@ -5057,13 +5116,13 @@
         <v>5.186233043670654</v>
       </c>
       <c r="B58" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C58" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D58" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E58" t="s">
         <v>28</v>
@@ -5075,10 +5134,10 @@
         <v>27</v>
       </c>
       <c r="H58" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I58" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59">
@@ -5086,13 +5145,13 @@
         <v>5.1812028884887695</v>
       </c>
       <c r="B59" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C59" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D59" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E59" t="s">
         <v>28</v>
@@ -5104,10 +5163,10 @@
         <v>27</v>
       </c>
       <c r="H59" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="I59" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60">
@@ -5115,13 +5174,13 @@
         <v>5.168568134307861</v>
       </c>
       <c r="B60" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C60" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D60" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E60" t="s">
         <v>28</v>
@@ -5133,10 +5192,10 @@
         <v>27</v>
       </c>
       <c r="H60" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="I60" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61">
@@ -5144,13 +5203,13 @@
         <v>5.139148235321045</v>
       </c>
       <c r="B61" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C61" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D61" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E61" t="s">
         <v>28</v>
@@ -5162,10 +5221,10 @@
         <v>27</v>
       </c>
       <c r="H61" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="I61" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62">
@@ -5173,13 +5232,13 @@
         <v>5.104814529418945</v>
       </c>
       <c r="B62" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C62" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D62" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E62" t="s">
         <v>28</v>
@@ -5191,10 +5250,10 @@
         <v>27</v>
       </c>
       <c r="H62" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="I62" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63">
@@ -5202,13 +5261,13 @@
         <v>5.100618839263916</v>
       </c>
       <c r="B63" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C63" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D63" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E63" t="s">
         <v>28</v>
@@ -5220,10 +5279,10 @@
         <v>27</v>
       </c>
       <c r="H63" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="I63" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64">
@@ -5231,13 +5290,13 @@
         <v>5.087298393249512</v>
       </c>
       <c r="B64" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C64" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D64" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E64" t="s">
         <v>28</v>
@@ -5249,10 +5308,10 @@
         <v>27</v>
       </c>
       <c r="H64" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I64" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65">
@@ -5260,13 +5319,13 @@
         <v>4.842808723449707</v>
       </c>
       <c r="B65" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C65" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D65" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E65" t="s">
         <v>28</v>
@@ -5278,10 +5337,10 @@
         <v>27</v>
       </c>
       <c r="H65" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="I65" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66">
@@ -5289,13 +5348,13 @@
         <v>4.79440450668335</v>
       </c>
       <c r="B66" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C66" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D66" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E66" t="s">
         <v>28</v>
@@ -5307,10 +5366,10 @@
         <v>27</v>
       </c>
       <c r="H66" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="I66" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67">
@@ -5318,13 +5377,13 @@
         <v>4.760904788970947</v>
       </c>
       <c r="B67" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C67" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D67" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E67" t="s">
         <v>28</v>
@@ -5336,10 +5395,10 @@
         <v>27</v>
       </c>
       <c r="H67" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="I67" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68">
@@ -5347,13 +5406,13 @@
         <v>4.748435974121094</v>
       </c>
       <c r="B68" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C68" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D68" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E68" t="s">
         <v>28</v>
@@ -5365,10 +5424,10 @@
         <v>27</v>
       </c>
       <c r="H68" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="I68" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69">
@@ -5376,13 +5435,13 @@
         <v>4.744199275970459</v>
       </c>
       <c r="B69" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C69" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D69" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E69" t="s">
         <v>28</v>
@@ -5394,10 +5453,10 @@
         <v>27</v>
       </c>
       <c r="H69" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I69" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70">
@@ -5405,13 +5464,13 @@
         <v>4.740993976593018</v>
       </c>
       <c r="B70" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C70" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D70" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E70" t="s">
         <v>28</v>
@@ -5423,10 +5482,10 @@
         <v>27</v>
       </c>
       <c r="H70" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="I70" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71">
@@ -5434,13 +5493,13 @@
         <v>4.737764835357666</v>
       </c>
       <c r="B71" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C71" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D71" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E71" t="s">
         <v>28</v>
@@ -5452,10 +5511,10 @@
         <v>27</v>
       </c>
       <c r="H71" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="I71" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72">
@@ -5463,13 +5522,13 @@
         <v>4.737764835357666</v>
       </c>
       <c r="B72" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C72" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D72" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E72" t="s">
         <v>28</v>
@@ -5481,10 +5540,10 @@
         <v>27</v>
       </c>
       <c r="H72" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="I72" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73">
@@ -5492,13 +5551,13 @@
         <v>4.737764835357666</v>
       </c>
       <c r="B73" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C73" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D73" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E73" t="s">
         <v>28</v>
@@ -5510,10 +5569,10 @@
         <v>27</v>
       </c>
       <c r="H73" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="I73" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74">
@@ -5521,13 +5580,13 @@
         <v>4.737764835357666</v>
       </c>
       <c r="B74" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C74" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D74" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E74" t="s">
         <v>28</v>
@@ -5539,10 +5598,10 @@
         <v>27</v>
       </c>
       <c r="H74" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I74" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75">
@@ -5550,13 +5609,13 @@
         <v>4.737764835357666</v>
       </c>
       <c r="B75" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C75" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D75" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E75" t="s">
         <v>28</v>
@@ -5568,10 +5627,10 @@
         <v>27</v>
       </c>
       <c r="H75" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="I75" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76">
@@ -5579,13 +5638,13 @@
         <v>4.737764835357666</v>
       </c>
       <c r="B76" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C76" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D76" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E76" t="s">
         <v>28</v>
@@ -5597,10 +5656,10 @@
         <v>27</v>
       </c>
       <c r="H76" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="I76" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77">
@@ -5608,13 +5667,13 @@
         <v>4.737764835357666</v>
       </c>
       <c r="B77" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C77" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D77" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E77" t="s">
         <v>28</v>
@@ -5626,10 +5685,10 @@
         <v>27</v>
       </c>
       <c r="H77" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I77" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78">
@@ -5637,13 +5696,13 @@
         <v>4.737764835357666</v>
       </c>
       <c r="B78" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C78" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D78" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E78" t="s">
         <v>28</v>
@@ -5655,10 +5714,10 @@
         <v>27</v>
       </c>
       <c r="H78" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="I78" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79">
@@ -5666,13 +5725,13 @@
         <v>4.721250057220459</v>
       </c>
       <c r="B79" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C79" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D79" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E79" t="s">
         <v>28</v>
@@ -5684,10 +5743,10 @@
         <v>27</v>
       </c>
       <c r="H79" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="I79" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5780,6 +5839,64 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6.993253707885742</v>
+      </c>
+      <c r="B2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.212647914886475</v>
+      </c>
+      <c r="B3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>462</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
